--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ФИО</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>API веб-сервисов</t>
+  </si>
+  <si>
+    <t>Thunkable</t>
   </si>
 </sst>
 </file>
@@ -388,11 +391,11 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>modules!$A$2:$A$6</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>"В работе,Сдается,Сдан"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>modules!$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -445,6 +448,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
